--- a/02-Rocker-Bogie-Robot/100-CHASSIS/Chassis-Dimensions.xlsx
+++ b/02-Rocker-Bogie-Robot/100-CHASSIS/Chassis-Dimensions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Chassis-Dimensions</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Rocker_Screw_Distance</t>
+  </si>
+  <si>
+    <t>Rocker_Screw_Distance_Bottom</t>
   </si>
 </sst>
 </file>
@@ -97,10 +100,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -384,22 +387,22 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -418,7 +421,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3">
@@ -487,9 +490,15 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>

--- a/02-Rocker-Bogie-Robot/100-CHASSIS/Chassis-Dimensions.xlsx
+++ b/02-Rocker-Bogie-Robot/100-CHASSIS/Chassis-Dimensions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Chassis-Dimensions</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Rocker_Screw_Distance_Bottom</t>
+  </si>
+  <si>
+    <t>Chassis_Bottom_Height</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +508,15 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>

--- a/02-Rocker-Bogie-Robot/100-CHASSIS/Chassis-Dimensions.xlsx
+++ b/02-Rocker-Bogie-Robot/100-CHASSIS/Chassis-Dimensions.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02-Rocker-Bogie-Robot/100-CHASSIS/Chassis-Dimensions.xlsx
+++ b/02-Rocker-Bogie-Robot/100-CHASSIS/Chassis-Dimensions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
